--- a/Bitacora_Etapa_Productiva_semana DIEZ.xlsx
+++ b/Bitacora_Etapa_Productiva_semana DIEZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDIAZ\Downloads\Etapa productiva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDIAZ\Downloads\Etapa productiva\bitacorasADSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>ANALISIS Y DESARROLLO DE SISTEMAS DE  INFORMACIÓN</t>
-  </si>
-  <si>
-    <t>CEDULA</t>
   </si>
   <si>
     <t>GUSTAVO JIMENEZ</t>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t xml:space="preserve">PARTICIPAR EN LOS PERFECCIONAMIENTOS DE CONTRATOS INFORMÁTICOS,ESTABLECIENDO CLÁUSULAS TÉCNICAS, QUE RESPONDAN A LAS NECESIDADES DELOS ACTORES DE LA NEGOCIACIÓN, DE ACUERDO CON LA LEY DE CONTRATACIÓN </t>
+  </si>
+  <si>
+    <t>Programming Backend</t>
+  </si>
+  <si>
+    <t>Tauramena/Casanare</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39:R39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
@@ -2064,7 +2067,7 @@
       <c r="O18" s="92"/>
       <c r="P18" s="124"/>
       <c r="Q18" s="86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R18" s="86"/>
       <c r="S18" s="86"/>
@@ -2235,7 +2238,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
@@ -2289,7 +2292,7 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="77"/>
       <c r="F27" s="77"/>
@@ -2302,7 +2305,7 @@
         <v>20</v>
       </c>
       <c r="M27" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N27" s="86"/>
       <c r="O27" s="86"/>
@@ -2312,7 +2315,7 @@
       </c>
       <c r="R27" s="49"/>
       <c r="S27" s="86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T27" s="86"/>
       <c r="U27" s="86"/>
@@ -2351,7 +2354,7 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="77"/>
@@ -2363,7 +2366,7 @@
       </c>
       <c r="K29" s="92"/>
       <c r="L29" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M29" s="77"/>
       <c r="N29" s="77"/>
@@ -2372,7 +2375,9 @@
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="76"/>
+      <c r="R29" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="S29" s="77"/>
       <c r="T29" s="77"/>
       <c r="U29" s="77"/>
@@ -2408,7 +2413,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="77"/>
       <c r="E31" s="77"/>
@@ -2423,7 +2428,7 @@
         <v>27</v>
       </c>
       <c r="L31" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M31" s="88"/>
       <c r="N31" s="88"/>
@@ -2543,7 +2548,7 @@
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="127" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="128"/>
       <c r="D36" s="128"/>
@@ -2603,13 +2608,13 @@
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="134"/>
       <c r="D38" s="134"/>
       <c r="E38" s="135"/>
       <c r="F38" s="115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" s="116"/>
       <c r="H38" s="116"/>
@@ -2635,13 +2640,13 @@
     </row>
     <row r="39" spans="1:24" s="4" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="133" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="134"/>
       <c r="D39" s="134"/>
       <c r="E39" s="135"/>
       <c r="F39" s="115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G39" s="116"/>
       <c r="H39" s="116"/>
